--- a/data/GCP_IKONOS_bgrn.xlsx
+++ b/data/GCP_IKONOS_bgrn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zkyfile\matlab_program\bias_compensation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFF7D26-E74B-4F5B-9CBA-8690F3A049B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA01F2A-47CC-4FB3-AB7A-510684CAE9AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -375,6 +375,176 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2529.4603999999999</v>
+      </c>
+      <c r="B2">
+        <v>1519.6579999999999</v>
+      </c>
+      <c r="C2">
+        <v>103.836681</v>
+      </c>
+      <c r="D2">
+        <v>1.3188839999999999</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1030.2064</v>
+      </c>
+      <c r="B3">
+        <v>1668.913</v>
+      </c>
+      <c r="C3">
+        <v>103.840963</v>
+      </c>
+      <c r="D3">
+        <v>1.3622259999999999</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4543.4663</v>
+      </c>
+      <c r="B4">
+        <v>1350.413</v>
+      </c>
+      <c r="C4">
+        <v>103.83167</v>
+      </c>
+      <c r="D4">
+        <v>1.260535</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2411.6421</v>
+      </c>
+      <c r="B5">
+        <v>299.51690000000002</v>
+      </c>
+      <c r="C5">
+        <v>103.801597</v>
+      </c>
+      <c r="D5">
+        <v>1.3222400000000001</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4175.5962</v>
+      </c>
+      <c r="B6">
+        <v>229.6035</v>
+      </c>
+      <c r="C6">
+        <v>103.799375</v>
+      </c>
+      <c r="D6">
+        <v>1.27119</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3153.9369999999999</v>
+      </c>
+      <c r="B7">
+        <v>1806.1139000000001</v>
+      </c>
+      <c r="C7">
+        <v>103.84481599999999</v>
+      </c>
+      <c r="D7">
+        <v>1.3007150000000001</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4733.3847999999998</v>
+      </c>
+      <c r="B8">
+        <v>998.37450000000001</v>
+      </c>
+      <c r="C8">
+        <v>103.82150799999999</v>
+      </c>
+      <c r="D8">
+        <v>1.2550490000000001</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>660.83100000000002</v>
+      </c>
+      <c r="B9">
+        <v>1405.5353</v>
+      </c>
+      <c r="C9">
+        <v>103.83345</v>
+      </c>
+      <c r="D9">
+        <v>1.372817</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3259.7296999999999</v>
+      </c>
+      <c r="B10">
+        <v>3434.6696999999999</v>
+      </c>
+      <c r="C10">
+        <v>103.89201</v>
+      </c>
+      <c r="D10">
+        <v>1.2978510000000001</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2424.4845999999998</v>
+      </c>
+      <c r="B11">
+        <v>3844.2487999999998</v>
+      </c>
+      <c r="C11">
+        <v>103.903778</v>
+      </c>
+      <c r="D11">
+        <v>1.3220229999999999</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GCP_IKONOS_bgrn.xlsx
+++ b/data/GCP_IKONOS_bgrn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zkyfile\matlab_program\bias_compensation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA01F2A-47CC-4FB3-AB7A-510684CAE9AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE95FA-012F-466D-A9D3-BF8569EA0521}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/GCP_IKONOS_bgrn.xlsx
+++ b/data/GCP_IKONOS_bgrn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zkyfile\matlab_program\bias_compensation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE95FA-012F-466D-A9D3-BF8569EA0521}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56F0601-0882-4F2A-9454-D561AC4E8BF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -545,6 +545,91 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1273.6855</v>
+      </c>
+      <c r="B12">
+        <v>2097.5309999999999</v>
+      </c>
+      <c r="C12">
+        <v>103.85330500000001</v>
+      </c>
+      <c r="D12">
+        <v>1.3551610000000001</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3446.8618000000001</v>
+      </c>
+      <c r="B13">
+        <v>973.82460000000003</v>
+      </c>
+      <c r="C13">
+        <v>103.820736</v>
+      </c>
+      <c r="D13">
+        <v>1.2922929999999999</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3586.5315000000001</v>
+      </c>
+      <c r="B14">
+        <v>250.53020000000001</v>
+      </c>
+      <c r="C14">
+        <v>103.80011399999999</v>
+      </c>
+      <c r="D14">
+        <v>1.288181</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1729.6251999999999</v>
+      </c>
+      <c r="B15">
+        <v>2055.4780000000001</v>
+      </c>
+      <c r="C15">
+        <v>103.852118</v>
+      </c>
+      <c r="D15">
+        <v>1.3419239999999999</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3526.7777999999998</v>
+      </c>
+      <c r="B16">
+        <v>2839.3728000000001</v>
+      </c>
+      <c r="C16">
+        <v>103.87490200000001</v>
+      </c>
+      <c r="D16">
+        <v>1.2900929999999999</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GCP_IKONOS_bgrn.xlsx
+++ b/data/GCP_IKONOS_bgrn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zkyfile\matlab_program\bias_compensation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56F0601-0882-4F2A-9454-D561AC4E8BF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A84E51F-98BE-473D-9B2E-F259C15D20E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -360,273 +360,256 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>3029.4326000000001</v>
+        <v>2529.4603999999999</v>
       </c>
       <c r="B1">
-        <v>2302.627</v>
+        <v>1519.6579999999999</v>
       </c>
       <c r="C1">
-        <v>103.858918</v>
+        <v>103.836681</v>
       </c>
       <c r="D1">
-        <v>1.3043830000000001</v>
+        <v>1.3188839999999999</v>
       </c>
       <c r="E1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2529.4603999999999</v>
+        <v>1030.2064</v>
       </c>
       <c r="B2">
-        <v>1519.6579999999999</v>
+        <v>1668.913</v>
       </c>
       <c r="C2">
-        <v>103.836681</v>
+        <v>103.840963</v>
       </c>
       <c r="D2">
-        <v>1.3188839999999999</v>
+        <v>1.3622259999999999</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1030.2064</v>
+        <v>4543.4663</v>
       </c>
       <c r="B3">
-        <v>1668.913</v>
+        <v>1350.413</v>
       </c>
       <c r="C3">
-        <v>103.840963</v>
+        <v>103.83167</v>
       </c>
       <c r="D3">
-        <v>1.3622259999999999</v>
+        <v>1.260535</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4543.4663</v>
+        <v>2411.6421</v>
       </c>
       <c r="B4">
-        <v>1350.413</v>
+        <v>299.51690000000002</v>
       </c>
       <c r="C4">
-        <v>103.83167</v>
+        <v>103.801597</v>
       </c>
       <c r="D4">
-        <v>1.260535</v>
+        <v>1.3222400000000001</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2411.6421</v>
+        <v>4175.5962</v>
       </c>
       <c r="B5">
-        <v>299.51690000000002</v>
+        <v>229.6035</v>
       </c>
       <c r="C5">
-        <v>103.801597</v>
+        <v>103.799375</v>
       </c>
       <c r="D5">
-        <v>1.3222400000000001</v>
+        <v>1.27119</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4175.5962</v>
+        <v>3153.9369999999999</v>
       </c>
       <c r="B6">
-        <v>229.6035</v>
+        <v>1806.1139000000001</v>
       </c>
       <c r="C6">
-        <v>103.799375</v>
+        <v>103.84481599999999</v>
       </c>
       <c r="D6">
-        <v>1.27119</v>
+        <v>1.3007150000000001</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3153.9369999999999</v>
+        <v>4733.3847999999998</v>
       </c>
       <c r="B7">
-        <v>1806.1139000000001</v>
+        <v>998.37450000000001</v>
       </c>
       <c r="C7">
-        <v>103.84481599999999</v>
+        <v>103.82150799999999</v>
       </c>
       <c r="D7">
-        <v>1.3007150000000001</v>
+        <v>1.2550490000000001</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4733.3847999999998</v>
+        <v>660.83100000000002</v>
       </c>
       <c r="B8">
-        <v>998.37450000000001</v>
+        <v>1405.5353</v>
       </c>
       <c r="C8">
-        <v>103.82150799999999</v>
+        <v>103.83345</v>
       </c>
       <c r="D8">
-        <v>1.2550490000000001</v>
+        <v>1.372817</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>660.83100000000002</v>
+        <v>3259.7296999999999</v>
       </c>
       <c r="B9">
-        <v>1405.5353</v>
+        <v>3434.6696999999999</v>
       </c>
       <c r="C9">
-        <v>103.83345</v>
+        <v>103.89201</v>
       </c>
       <c r="D9">
-        <v>1.372817</v>
+        <v>1.2978510000000001</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3259.7296999999999</v>
+        <v>2424.4845999999998</v>
       </c>
       <c r="B10">
-        <v>3434.6696999999999</v>
+        <v>3844.2487999999998</v>
       </c>
       <c r="C10">
-        <v>103.89201</v>
+        <v>103.903778</v>
       </c>
       <c r="D10">
-        <v>1.2978510000000001</v>
+        <v>1.3220229999999999</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2424.4845999999998</v>
+        <v>1273.6855</v>
       </c>
       <c r="B11">
-        <v>3844.2487999999998</v>
+        <v>2097.5309999999999</v>
       </c>
       <c r="C11">
-        <v>103.903778</v>
+        <v>103.85330500000001</v>
       </c>
       <c r="D11">
-        <v>1.3220229999999999</v>
+        <v>1.3551610000000001</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1273.6855</v>
+        <v>3446.8618000000001</v>
       </c>
       <c r="B12">
-        <v>2097.5309999999999</v>
+        <v>973.82460000000003</v>
       </c>
       <c r="C12">
-        <v>103.85330500000001</v>
+        <v>103.820736</v>
       </c>
       <c r="D12">
-        <v>1.3551610000000001</v>
+        <v>1.2922929999999999</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3446.8618000000001</v>
+        <v>3586.5315000000001</v>
       </c>
       <c r="B13">
-        <v>973.82460000000003</v>
+        <v>250.53020000000001</v>
       </c>
       <c r="C13">
-        <v>103.820736</v>
+        <v>103.80011399999999</v>
       </c>
       <c r="D13">
-        <v>1.2922929999999999</v>
+        <v>1.288181</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3586.5315000000001</v>
+        <v>1729.6251999999999</v>
       </c>
       <c r="B14">
-        <v>250.53020000000001</v>
+        <v>2055.4780000000001</v>
       </c>
       <c r="C14">
-        <v>103.80011399999999</v>
+        <v>103.852118</v>
       </c>
       <c r="D14">
-        <v>1.288181</v>
+        <v>1.3419239999999999</v>
       </c>
       <c r="E14">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1729.6251999999999</v>
+        <v>3526.7777999999998</v>
       </c>
       <c r="B15">
-        <v>2055.4780000000001</v>
+        <v>2839.3728000000001</v>
       </c>
       <c r="C15">
-        <v>103.852118</v>
+        <v>103.87490200000001</v>
       </c>
       <c r="D15">
-        <v>1.3419239999999999</v>
+        <v>1.2900929999999999</v>
       </c>
       <c r="E15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>3526.7777999999998</v>
-      </c>
-      <c r="B16">
-        <v>2839.3728000000001</v>
-      </c>
-      <c r="C16">
-        <v>103.87490200000001</v>
-      </c>
-      <c r="D16">
-        <v>1.2900929999999999</v>
-      </c>
-      <c r="E16">
         <v>8</v>
       </c>
     </row>
